--- a/ust/python/exports/QAQC/WV/WV_ust_QAQC_20240624200855.xlsx
+++ b/ust/python/exports/QAQC/WV/WV_ust_QAQC_20240624200855.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erguser\repos\ERG\UST\ust\python\exports\QAQC\WV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CA8232-C360-420A-8E75-D4A79DF57118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B58AA7-84BD-4B34-AD51-C35DF3513D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32235" yWindow="1500" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="tank_status_id null" sheetId="2" r:id="rId1"/>
+    <sheet name="compartment_status_id null" sheetId="3" r:id="rId2"/>
+    <sheet name="Overview" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>View Name</t>
   </si>
@@ -92,12 +94,102 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>wv_ust.v_ust_compartment.compartment_id</t>
+  </si>
+  <si>
+    <t>Missing required column</t>
+  </si>
+  <si>
+    <t>Number of null rows for required column ust_facility.facility_id</t>
+  </si>
+  <si>
+    <t>Number of null rows for required column ust_facility.facility_state</t>
+  </si>
+  <si>
+    <t>Number of null rows for required column ust_tank.tank_id</t>
+  </si>
+  <si>
+    <t>Number of null rows for required column ust_tank.tank_status_id</t>
+  </si>
+  <si>
+    <t>Number of null rows for required column ust_compartment.compartment_status_id</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>700760</t>
+  </si>
+  <si>
+    <t>606682</t>
+  </si>
+  <si>
+    <t>5506120</t>
+  </si>
+  <si>
+    <t>400308</t>
+  </si>
+  <si>
+    <t>3206314</t>
+  </si>
+  <si>
+    <t>300238</t>
+  </si>
+  <si>
+    <t>2408942</t>
+  </si>
+  <si>
+    <t>2002462</t>
+  </si>
+  <si>
+    <t>1309844</t>
+  </si>
+  <si>
+    <t>tank_material_description_id</t>
+  </si>
+  <si>
+    <t>number_of_compartments</t>
+  </si>
+  <si>
+    <t>compartmentalized_ust</t>
+  </si>
+  <si>
+    <t>tank_installation_date</t>
+  </si>
+  <si>
+    <t>tank_closure_date</t>
+  </si>
+  <si>
+    <t>federally_regulated</t>
+  </si>
+  <si>
+    <t>tank_status_id</t>
+  </si>
+  <si>
+    <t>tank_id</t>
+  </si>
+  <si>
+    <t>facility_id</t>
+  </si>
+  <si>
+    <t>compartment_capacity_gallons</t>
+  </si>
+  <si>
+    <t>substance_id</t>
+  </si>
+  <si>
+    <t>compartment_status_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,11 +529,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B10796-FB9D-41CE-AD29-3EA486050342}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
+        <v>36557</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>32843</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>35430</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>35643</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>35905</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>34543</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>35034</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>37230</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>36100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B215F6E-B707-4240-999D-B78925209CDC}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +985,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -499,7 +993,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -507,7 +1001,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -515,7 +1009,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -523,7 +1017,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -531,58 +1025,106 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ust/python/exports/QAQC/WV/WV_ust_QAQC_20240624200855.xlsx
+++ b/ust/python/exports/QAQC/WV/WV_ust_QAQC_20240624200855.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erguser\repos\ERG\UST\ust\python\exports\QAQC\WV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B58AA7-84BD-4B34-AD51-C35DF3513D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E886966-18FB-46D3-B43F-58BDAED911A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32235" yWindow="1500" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,12 +204,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1034,7 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
     </row>
@@ -1059,7 +1066,7 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>9</v>
       </c>
     </row>
